--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gq/Desktop/containers-fetch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4626D3-3CBE-5646-B115-03CDC473D850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D7B7E-7FA6-8844-9334-7A2367CAE78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E0198F72-3B07-AB4D-95B3-34F50D9C1A70}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">data!$A$1:$F$175</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="535">
   <si>
     <t>full_name</t>
   </si>
@@ -1641,17 +1641,23 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>TUTORIAL</t>
-  </si>
-  <si>
     <t>RUNTIME</t>
+  </si>
+  <si>
+    <t>CLOUD</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>HPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1660,6 +1666,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1704,7 +1726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1719,6 +1741,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2080,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3061D8B-2F6E-BF4B-9083-785476A5B7D8}">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2361,7 +2388,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C14">
         <v>20249</v>
@@ -2661,7 +2688,7 @@
         <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C29">
         <v>11932</v>
@@ -2801,7 +2828,7 @@
         <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C36">
         <v>10669</v>
@@ -2901,7 +2928,7 @@
         <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C41">
         <v>9067</v>
@@ -3381,7 +3408,7 @@
         <v>195</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C65">
         <v>6294</v>
@@ -3501,7 +3528,7 @@
         <v>213</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C71">
         <v>5701</v>
@@ -3881,7 +3908,7 @@
         <v>270</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C90">
         <v>4314</v>
@@ -4101,7 +4128,7 @@
         <v>303</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C101">
         <v>3905</v>
@@ -4921,7 +4948,7 @@
         <v>427</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C142">
         <v>141</v>
@@ -5001,7 +5028,7 @@
         <v>439</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C146">
         <v>134</v>
@@ -5101,7 +5128,7 @@
         <v>454</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C151">
         <v>104</v>
@@ -5594,6 +5621,122 @@
       </c>
       <c r="F175" s="1" t="s">
         <v>466</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C176" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>529</v>
+      </c>
+      <c r="B177">
+        <f>COUNTIF(B2:B175, "ENGINE")</f>
+        <v>8</v>
+      </c>
+      <c r="C177">
+        <f>COUNTIF(B2:B105, "ENGINE")</f>
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <f>COUNTIF(B106:C154, "ENGINE")</f>
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <f>COUNTIF(B155:B175, "ENGINE")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>531</v>
+      </c>
+      <c r="B178">
+        <f>COUNTIF(B2:B175, "RUNTIME")</f>
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <f>COUNTIF(B2:B105, "RUNTIME")</f>
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <f>COUNTIF(B106:B154, "RUNTIME")</f>
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <f>COUNTIF(B155:B175, "RUNTIME")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>528</v>
+      </c>
+      <c r="B179">
+        <f>COUNTIF(B2:B175, "TOOL")</f>
+        <v>58</v>
+      </c>
+      <c r="C179">
+        <f>COUNTIF(B2:B105, "TOOL")</f>
+        <v>46</v>
+      </c>
+      <c r="D179">
+        <f>COUNTIF(B106:B154, "TOOL")</f>
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <f>COUNTIF(B155:B175, "TOOL")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>530</v>
+      </c>
+      <c r="B180">
+        <f>COUNTIF(B2:B175, "N/A")</f>
+        <v>105</v>
+      </c>
+      <c r="C180">
+        <f>COUNTIF(B2:B105, "N/A")</f>
+        <v>51</v>
+      </c>
+      <c r="D180">
+        <f>COUNTIF(B106:B154,"N/A")</f>
+        <v>42</v>
+      </c>
+      <c r="E180">
+        <f>COUNTIF(B155:B175,"N/A")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D181"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="8">
+        <f>SUM(B177:B181)</f>
+        <v>174</v>
+      </c>
+      <c r="C182" s="8">
+        <f>SUM(C177:C181)</f>
+        <v>104</v>
+      </c>
+      <c r="D182" s="10">
+        <f>SUM(D177:D181)</f>
+        <v>49</v>
+      </c>
+      <c r="E182" s="8">
+        <f>SUM(E177:E181)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
